--- a/Turma 462 - Outubro 2017/Aula 3/Time Se E e Ou.xlsx
+++ b/Turma 462 - Outubro 2017/Aula 3/Time Se E e Ou.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="120" windowWidth="14355" windowHeight="4680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="120" windowWidth="14355" windowHeight="4680" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="=Ou" sheetId="1" r:id="rId1"/>
@@ -647,8 +647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView topLeftCell="C1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -699,6 +699,10 @@
         <v>6</v>
       </c>
       <c r="F5" s="2"/>
+      <c r="G5" t="str">
+        <f>IF(AND(C5&gt;=45,D5&gt;=10),"Finalista","")</f>
+        <v/>
+      </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
@@ -714,7 +718,10 @@
         <v>1</v>
       </c>
       <c r="F6" s="2"/>
-      <c r="G6" s="1"/>
+      <c r="G6" s="1" t="str">
+        <f t="shared" ref="G6:G12" si="0">IF(AND(C6&gt;=45,D6&gt;=10),"Finalista","")</f>
+        <v/>
+      </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
@@ -730,7 +737,10 @@
         <v>13</v>
       </c>
       <c r="F7" s="2"/>
-      <c r="G7" s="1"/>
+      <c r="G7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
@@ -746,7 +756,10 @@
         <v>5</v>
       </c>
       <c r="F8" s="2"/>
-      <c r="G8" s="1"/>
+      <c r="G8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
@@ -762,7 +775,10 @@
         <v>7</v>
       </c>
       <c r="F9" s="2"/>
-      <c r="G9" s="1"/>
+      <c r="G9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
@@ -778,7 +794,10 @@
         <v>7</v>
       </c>
       <c r="F10" s="2"/>
-      <c r="G10" s="1"/>
+      <c r="G10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
@@ -794,7 +813,10 @@
         <v>6</v>
       </c>
       <c r="F11" s="2"/>
-      <c r="G11" s="1"/>
+      <c r="G11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
@@ -810,7 +832,10 @@
         <v>11</v>
       </c>
       <c r="F12" s="2"/>
-      <c r="G12" s="1"/>
+      <c r="G12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -826,8 +851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:G12"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5:G12"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -878,7 +903,14 @@
       <c r="E5" s="1">
         <v>6</v>
       </c>
-      <c r="F5" s="2"/>
+      <c r="F5" s="2" t="b">
+        <f>AND(C5&gt;=45,D5&gt;=10)</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="1" t="str">
+        <f>IF(AND(C5&gt;=45,D5&gt;=10),"Finalista","")</f>
+        <v/>
+      </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
@@ -893,7 +925,14 @@
       <c r="E6" s="1">
         <v>1</v>
       </c>
-      <c r="F6" s="2"/>
+      <c r="F6" s="2" t="b">
+        <f t="shared" ref="F6:F12" si="0">AND(C6&gt;=45,D6&gt;=10)</f>
+        <v>1</v>
+      </c>
+      <c r="G6" s="1" t="str">
+        <f t="shared" ref="G6:G12" si="1">IF(AND(C6&gt;=45,D6&gt;=10),"Finalista","")</f>
+        <v>Finalista</v>
+      </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
@@ -908,7 +947,14 @@
       <c r="E7" s="1">
         <v>13</v>
       </c>
-      <c r="F7" s="2"/>
+      <c r="F7" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G7" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
@@ -923,7 +969,14 @@
       <c r="E8" s="1">
         <v>5</v>
       </c>
-      <c r="F8" s="2"/>
+      <c r="F8" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G8" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
@@ -938,7 +991,14 @@
       <c r="E9" s="1">
         <v>7</v>
       </c>
-      <c r="F9" s="2"/>
+      <c r="F9" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G9" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Finalista</v>
+      </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
@@ -953,7 +1013,14 @@
       <c r="E10" s="1">
         <v>7</v>
       </c>
-      <c r="F10" s="2"/>
+      <c r="F10" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
@@ -968,7 +1035,14 @@
       <c r="E11" s="1">
         <v>2</v>
       </c>
-      <c r="F11" s="2"/>
+      <c r="F11" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G11" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Finalista</v>
+      </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
@@ -983,7 +1057,14 @@
       <c r="E12" s="1">
         <v>11</v>
       </c>
-      <c r="F12" s="2"/>
+      <c r="F12" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
